--- a/Joe4.xlsx
+++ b/Joe4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">**Table X. Summary of all data by Impact_Factor-Clarivate**</t>
   </si>
@@ -110,16 +110,13 @@
     <t xml:space="preserve">6 (100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9 (range: 1.2 to 2.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (range: 0.24 to 0.45)</t>
+    <t xml:space="preserve">1.6 (range: 0.0 to 2.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (range: 0.00 to 0.45)</t>
   </si>
   <si>
     <t xml:space="preserve">435 (range: 268 to 671)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (100%)</t>
   </si>
   <si>
     <t xml:space="preserve">Asiatic Region
@@ -157,19 +154,19 @@
     <t xml:space="preserve">45 (98%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 (range: 0.2 to 7.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55 (range: 0.04 to 2.12)</t>
+    <t xml:space="preserve">1.4 (range: 0.0 to 7.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (range: 0.00 to 2.12)</t>
   </si>
   <si>
     <t xml:space="preserve">2,602 (range: 32 to 10,260)</t>
   </si>
   <si>
-    <t xml:space="preserve">24 (89%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (11%)</t>
+    <t xml:space="preserve">43 (93%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (6.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Europe
@@ -204,16 +201,16 @@
     <t xml:space="preserve">33 (94%)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 (range: 0.1 to 2.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (range: 0.02 to 0.57)</t>
+    <t xml:space="preserve">0.2 (range: 0.0 to 2.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (range: 0.00 to 0.57)</t>
   </si>
   <si>
     <t xml:space="preserve">841 (range: 62 to 2,672)</t>
   </si>
   <si>
-    <t xml:space="preserve">8 (100%)</t>
+    <t xml:space="preserve">35 (100%)</t>
   </si>
   <si>
     <t xml:space="preserve">Latin America
@@ -227,16 +224,13 @@
     <t xml:space="preserve">3 (100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8 (range: 1.8 to 1.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (range: 0.35 to 0.35)</t>
+    <t xml:space="preserve">0.6 (range: 0.0 to 1.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (range: 0.00 to 0.35)</t>
   </si>
   <si>
     <t xml:space="preserve">644 (range: 644 to 644)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (100%)</t>
   </si>
   <si>
     <t xml:space="preserve">Middle East
@@ -268,16 +262,13 @@
     <t xml:space="preserve">19 (100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0 (range: 0.3 to 2.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (range: 0.05 to 0.50)</t>
+    <t xml:space="preserve">0.6 (range: 0.0 to 2.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (range: 0.00 to 0.50)</t>
   </si>
   <si>
     <t xml:space="preserve">577 (range: 99 to 3,163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (100%)</t>
   </si>
   <si>
     <t xml:space="preserve">Northern America
@@ -315,19 +306,19 @@
     <t xml:space="preserve">140 (97%)</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8 (range: 0.1 to 503.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71 (range: 0.03 to 88.75)</t>
+    <t xml:space="preserve">8.2 (range: 0.0 to 503.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58 (range: 0.00 to 88.75)</t>
   </si>
   <si>
     <t xml:space="preserve">11,577 (range: 50 to 169,257)</t>
   </si>
   <si>
-    <t xml:space="preserve">103 (77%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 (23%)</t>
+    <t xml:space="preserve">113 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (22%)</t>
   </si>
   <si>
     <t xml:space="preserve">Pacific Region
@@ -359,19 +350,19 @@
     <t xml:space="preserve">15 (100%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0 (range: 1.8 to 5.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61 (range: 0.35 to 0.92)</t>
+    <t xml:space="preserve">2.8 (range: 0.0 to 5.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57 (range: 0.00 to 0.92)</t>
   </si>
   <si>
     <t xml:space="preserve">4,429 (range: 429 to 15,604)</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (86%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (14%)</t>
+    <t xml:space="preserve">13 (87%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (13%)</t>
   </si>
   <si>
     <t xml:space="preserve">Western Europe
@@ -409,19 +400,19 @@
     <t xml:space="preserve">187 (98%)</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2 (range: 0.0 to 81.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46 (range: 0.01 to 58.00)</t>
+    <t xml:space="preserve">4.7 (range: 0.0 to 81.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27 (range: 0.00 to 58.00)</t>
   </si>
   <si>
     <t xml:space="preserve">9,212 (range: 11 to 102,352)</t>
   </si>
   <si>
-    <t xml:space="preserve">138 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 (19%)</t>
+    <t xml:space="preserve">157 (83%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 (17%)</t>
   </si>
   <si>
     <t xml:space="preserve">p-value
@@ -911,31 +902,31 @@
         <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -946,31 +937,31 @@
         <v>24</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -981,31 +972,31 @@
         <v>25</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -1051,31 +1042,31 @@
         <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -1121,31 +1112,31 @@
         <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -1191,7 +1182,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
@@ -1203,19 +1194,19 @@
         <v>26</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -1261,31 +1252,31 @@
         <v>27</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -1331,25 +1322,25 @@
         <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J14" s="9" t="n">
         <v>0.003</v>
@@ -1401,31 +1392,31 @@
         <v>26</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1506,10 +1497,10 @@
         <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>29</v>
@@ -1518,13 +1509,13 @@
         <v>29</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>28</v>
@@ -1541,25 +1532,25 @@
         <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>28</v>
@@ -1576,74 +1567,74 @@
         <v>31</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" ht="NA" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E22" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="n">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="NA" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>47</v>
@@ -1655,22 +1646,22 @@
         <v>69</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" ht="NA" customHeight="1">
@@ -1681,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>2</v>
@@ -1693,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="G24" s="9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="9" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>28</v>
@@ -1710,325 +1701,220 @@
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="NA" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E26" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" ht="NA" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>0.4</v>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>28</v>
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="NA" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" ht="NA" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10" t="n">
-        <v>27</v>
-      </c>
-      <c r="E30" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G30" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" ht="NA" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" ht="NA" customHeight="1">
-      <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+    <row r="30">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Joe4.xlsx
+++ b/Joe4.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0.31 (range: 0.00 to 0.45)</t>
   </si>
   <si>
-    <t xml:space="preserve">435 (range: 268 to 671)</t>
+    <t xml:space="preserve">363 (range: 0 to 671)</t>
   </si>
   <si>
     <t xml:space="preserve">Asiatic Region
@@ -160,7 +160,7 @@
     <t xml:space="preserve">0.31 (range: 0.00 to 2.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">2,602 (range: 32 to 10,260)</t>
+    <t xml:space="preserve">1,528 (range: 0 to 10,260)</t>
   </si>
   <si>
     <t xml:space="preserve">43 (93%)</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">0.05 (range: 0.00 to 0.57)</t>
   </si>
   <si>
-    <t xml:space="preserve">841 (range: 62 to 2,672)</t>
+    <t xml:space="preserve">192 (range: 0 to 2,672)</t>
   </si>
   <si>
     <t xml:space="preserve">35 (100%)</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">0.12 (range: 0.00 to 0.35)</t>
   </si>
   <si>
-    <t xml:space="preserve">644 (range: 644 to 644)</t>
+    <t xml:space="preserve">215 (range: 0 to 644)</t>
   </si>
   <si>
     <t xml:space="preserve">Middle East
@@ -268,7 +268,7 @@
     <t xml:space="preserve">0.14 (range: 0.00 to 0.50)</t>
   </si>
   <si>
-    <t xml:space="preserve">577 (range: 99 to 3,163)</t>
+    <t xml:space="preserve">334 (range: 0 to 3,163)</t>
   </si>
   <si>
     <t xml:space="preserve">Northern America
@@ -312,7 +312,7 @@
     <t xml:space="preserve">1.58 (range: 0.00 to 88.75)</t>
   </si>
   <si>
-    <t xml:space="preserve">11,577 (range: 50 to 169,257)</t>
+    <t xml:space="preserve">10,773 (range: 0 to 169,257)</t>
   </si>
   <si>
     <t xml:space="preserve">113 (78%)</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">0.57 (range: 0.00 to 0.92)</t>
   </si>
   <si>
-    <t xml:space="preserve">4,429 (range: 429 to 15,604)</t>
+    <t xml:space="preserve">4,133 (range: 0 to 15,604)</t>
   </si>
   <si>
     <t xml:space="preserve">13 (87%)</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">1.27 (range: 0.00 to 58.00)</t>
   </si>
   <si>
-    <t xml:space="preserve">9,212 (range: 11 to 102,352)</t>
+    <t xml:space="preserve">8,339 (range: 0 to 102,352)</t>
   </si>
   <si>
     <t xml:space="preserve">157 (83%)</t>
@@ -1666,31 +1666,31 @@
     </row>
     <row r="24" ht="NA" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="E24" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="n">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>28</v>
@@ -1701,31 +1701,31 @@
     </row>
     <row r="25" ht="NA" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>28</v>
@@ -1735,186 +1735,151 @@
       </c>
     </row>
     <row r="26" ht="NA" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" ht="NA" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>28</v>
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="NA" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" ht="NA" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
